--- a/Projekt/Wyniki.xlsx
+++ b/Projekt/Wyniki.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\InzynieriaOprogramowaniaI4\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D2F59-B12C-4577-A098-A72BD74143AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E07DA-A8EB-4346-9C24-F80C113A1418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2772" yWindow="2316" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -148,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,39 +163,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Akcent 5" xfId="1" builtinId="45"/>
@@ -471,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:E27"/>
+  <dimension ref="B3:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +490,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,196 +504,197 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projekt/Wyniki.xlsx
+++ b/Projekt/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\InzynieriaOprogramowaniaI4\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E07DA-A8EB-4346-9C24-F80C113A1418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC45EBD1-6E49-4C38-9A23-D460E6E1616D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2772" yWindow="2316" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Zadanie</t>
   </si>
@@ -60,10 +60,13 @@
     <t>Kontakt liderów, podział na grupy i wybór tematów</t>
   </si>
   <si>
-    <t>Kontakt liderów z PM-ami, ustalenie spotkania, konsultacja projektu z PM-ami, repozytoria kodu</t>
-  </si>
-  <si>
-    <t>Raport 1: Proof-of-concept</t>
+    <t>Raport 1: Wybór technologii</t>
+  </si>
+  <si>
+    <t>Raport 2: Wątpliwości dot. koncepcji</t>
+  </si>
+  <si>
+    <t>Kontakt liderów z PM-ami, zaproszenie do Teamsów, kwestia grupy FB</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,19 +187,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Akcent 5" xfId="1" builtinId="45"/>
@@ -480,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G4:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,24 +511,24 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="10">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
@@ -539,11 +545,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -551,11 +557,11 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
@@ -564,11 +570,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
+      <c r="C9" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -578,8 +584,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
@@ -588,16 +594,28 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="14">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
@@ -686,7 +704,9 @@
       <c r="C27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>

--- a/Projekt/Wyniki.xlsx
+++ b/Projekt/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\InzynieriaOprogramowaniaI4\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC45EBD1-6E49-4C38-9A23-D460E6E1616D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C49BC76-3293-4B02-BB91-B4C49C3CB915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,6 +188,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,13 +201,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,7 +487,7 @@
   <dimension ref="B3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,24 +511,24 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="14">
         <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
@@ -545,10 +545,10 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -560,20 +560,20 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -584,8 +584,8 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
@@ -594,10 +594,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -608,8 +608,8 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="10" t="s">
         <v>4</v>
       </c>

--- a/Projekt/Wyniki.xlsx
+++ b/Projekt/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\PRz\Kursy\2019_2020 - 2 - summer\InzynieriaOprogramowaniaI4\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C49BC76-3293-4B02-BB91-B4C49C3CB915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F5C9BE-D8B4-4CF9-B000-EA4DFE0F4916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,13 +487,14 @@
   <dimension ref="B3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="76.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -521,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="14">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -555,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -604,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -614,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
